--- a/10-19-2012-IKF Campus Report.xlsx
+++ b/10-19-2012-IKF Campus Report.xlsx
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -292,6 +292,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,7 +335,7 @@
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.399613380432129" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1271,43 +1274,43 @@
       <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="10">
         <v>43</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="10">
         <v>43</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="10">
         <v>43</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="10">
         <v>43</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="10">
         <v>43</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="10">
         <v>43</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="10">
         <v>43</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="10">
         <v>43</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="10">
         <v>43</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="10">
         <v>43</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="10">
         <v>43</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="10">
         <v>43</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="10">
         <v>43</v>
       </c>
     </row>
@@ -1318,43 +1321,43 @@
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="10">
         <v>46</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="10">
         <v>46</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="10">
         <v>46</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="10">
         <v>46</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="10">
         <v>46</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="10">
         <v>46</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="10">
         <v>46</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="10">
         <v>46</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="10">
         <v>46</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="10">
         <v>46</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="10">
         <v>46</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="10">
         <v>46</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="10">
         <v>46</v>
       </c>
     </row>
@@ -1365,43 +1368,43 @@
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1412,43 +1415,43 @@
       <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1459,43 +1462,43 @@
       <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1506,43 +1509,43 @@
       <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1598,43 +1601,43 @@
       <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8">
-        <v>0</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0</v>
-      </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-      <c r="M34" s="8">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="8"/>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
@@ -1735,43 +1738,43 @@
       <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0</v>
-      </c>
-      <c r="M37" s="8">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8">
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1826,19 +1829,19 @@
       <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
@@ -1847,19 +1850,19 @@
       <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
@@ -1868,19 +1871,19 @@
       <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
@@ -1889,19 +1892,19 @@
       <c r="B43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
@@ -1910,43 +1913,43 @@
       <c r="B44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="5">
-        <v>0</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5">
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1957,43 +1960,43 @@
       <c r="B45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="5">
-        <v>0</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-      <c r="I45" s="5">
-        <v>0</v>
-      </c>
-      <c r="J45" s="5">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5">
-        <v>0</v>
-      </c>
-      <c r="O45" s="5"/>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11"/>
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
@@ -2002,43 +2005,43 @@
       <c r="B46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="5">
-        <v>0</v>
-      </c>
-      <c r="D46" s="5">
-        <v>0</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5">
-        <v>0</v>
-      </c>
-      <c r="O46" s="5">
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2049,43 +2052,43 @@
       <c r="B47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="5">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5">
-        <v>0</v>
-      </c>
-      <c r="O47" s="5">
+      <c r="C47" s="11">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+      <c r="O47" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2281,43 +2284,43 @@
       <c r="B53" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="5">
-        <v>0</v>
-      </c>
-      <c r="D53" s="5">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5">
-        <v>0</v>
-      </c>
-      <c r="L53" s="5">
-        <v>0</v>
-      </c>
-      <c r="M53" s="5">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5">
-        <v>0</v>
-      </c>
-      <c r="O53" s="5">
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0</v>
+      </c>
+      <c r="O53" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2328,43 +2331,43 @@
       <c r="B54" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="5">
-        <v>0</v>
-      </c>
-      <c r="D54" s="5">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
-      <c r="M54" s="5">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5">
-        <v>0</v>
-      </c>
-      <c r="O54" s="5">
+      <c r="C54" s="11">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2375,43 +2378,43 @@
       <c r="B55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="5">
-        <v>0</v>
-      </c>
-      <c r="D55" s="5">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5">
-        <v>0</v>
-      </c>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5">
-        <v>0</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
-      <c r="M55" s="5">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5">
-        <v>0</v>
-      </c>
-      <c r="O55" s="5">
+      <c r="C55" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11">
+        <v>0</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0</v>
+      </c>
+      <c r="O55" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2563,43 +2566,43 @@
       <c r="B59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="8">
-        <v>0</v>
-      </c>
-      <c r="D59" s="8">
-        <v>0</v>
-      </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
-        <v>0</v>
-      </c>
-      <c r="K59" s="8">
-        <v>0</v>
-      </c>
-      <c r="L59" s="8">
-        <v>0</v>
-      </c>
-      <c r="M59" s="8">
-        <v>0</v>
-      </c>
-      <c r="N59" s="8">
-        <v>0</v>
-      </c>
-      <c r="O59" s="8">
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0</v>
+      </c>
+      <c r="O59" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2654,19 +2657,19 @@
       <c r="B62" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
@@ -2675,19 +2678,19 @@
       <c r="B63" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
@@ -2696,19 +2699,19 @@
       <c r="B64" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2719,43 +2722,43 @@
       <c r="B65" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="5">
-        <v>0</v>
-      </c>
-      <c r="D65" s="5">
-        <v>0</v>
-      </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
-      <c r="F65" s="5">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="5">
-        <v>0</v>
-      </c>
-      <c r="J65" s="5">
-        <v>0</v>
-      </c>
-      <c r="K65" s="5">
-        <v>0</v>
-      </c>
-      <c r="L65" s="5">
-        <v>0</v>
-      </c>
-      <c r="M65" s="5">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5">
-        <v>0</v>
-      </c>
-      <c r="O65" s="5"/>
+      <c r="C65" s="11">
+        <v>0</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11">
+        <v>0</v>
+      </c>
+      <c r="M65" s="11">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0</v>
+      </c>
+      <c r="O65" s="11"/>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
@@ -2764,43 +2767,43 @@
       <c r="B66" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="5">
-        <v>0</v>
-      </c>
-      <c r="D66" s="5">
-        <v>0</v>
-      </c>
-      <c r="E66" s="5">
-        <v>0</v>
-      </c>
-      <c r="F66" s="5">
-        <v>0</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5">
-        <v>0</v>
-      </c>
-      <c r="I66" s="5">
-        <v>0</v>
-      </c>
-      <c r="J66" s="5">
-        <v>0</v>
-      </c>
-      <c r="K66" s="5">
-        <v>0</v>
-      </c>
-      <c r="L66" s="5">
-        <v>0</v>
-      </c>
-      <c r="M66" s="5">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5">
-        <v>0</v>
-      </c>
-      <c r="O66" s="5">
+      <c r="C66" s="11">
+        <v>0</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+      <c r="O66" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2811,43 +2814,43 @@
       <c r="B67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="8">
-        <v>0</v>
-      </c>
-      <c r="D67" s="8">
-        <v>0</v>
-      </c>
-      <c r="E67" s="8">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
-        <v>0</v>
-      </c>
-      <c r="G67" s="8">
-        <v>0</v>
-      </c>
-      <c r="H67" s="8">
-        <v>0</v>
-      </c>
-      <c r="I67" s="8">
-        <v>0</v>
-      </c>
-      <c r="J67" s="8">
-        <v>0</v>
-      </c>
-      <c r="K67" s="8">
-        <v>0</v>
-      </c>
-      <c r="L67" s="8">
-        <v>0</v>
-      </c>
-      <c r="M67" s="8">
-        <v>0</v>
-      </c>
-      <c r="N67" s="8">
-        <v>0</v>
-      </c>
-      <c r="O67" s="8"/>
+      <c r="C67" s="11">
+        <v>0</v>
+      </c>
+      <c r="D67" s="11">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0</v>
+      </c>
+      <c r="J67" s="11">
+        <v>0</v>
+      </c>
+      <c r="K67" s="11">
+        <v>0</v>
+      </c>
+      <c r="L67" s="11">
+        <v>0</v>
+      </c>
+      <c r="M67" s="11">
+        <v>0</v>
+      </c>
+      <c r="N67" s="11">
+        <v>0</v>
+      </c>
+      <c r="O67" s="11"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
@@ -2947,43 +2950,43 @@
       <c r="B71" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="10">
         <v>45</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="10">
         <v>45</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="10">
         <v>45</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="10">
         <v>45</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="10">
         <v>45</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="10">
         <v>45</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="10">
         <v>45</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="10">
         <v>45</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="10">
         <v>45</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="10">
         <v>45</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="10">
         <v>45</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N71" s="10">
         <v>45</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="10">
         <v>45</v>
       </c>
     </row>
@@ -2994,43 +2997,43 @@
       <c r="B72" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="10">
-        <v>4</v>
-      </c>
-      <c r="D72" s="10">
+      <c r="C72" s="11">
+        <v>4</v>
+      </c>
+      <c r="D72" s="11">
         <v>3</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="11">
         <v>3</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="11">
         <v>3</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="11">
         <v>3</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="11">
         <v>2</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="11">
         <v>3</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J72" s="11">
         <v>3</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72" s="11">
         <v>3</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="11">
         <v>3</v>
       </c>
-      <c r="M72" s="10">
+      <c r="M72" s="11">
         <v>3</v>
       </c>
-      <c r="N72" s="10">
-        <v>4</v>
-      </c>
-      <c r="O72" s="10">
+      <c r="N72" s="11">
+        <v>4</v>
+      </c>
+      <c r="O72" s="11">
         <v>3.0999999046325684</v>
       </c>
     </row>
@@ -3041,43 +3044,43 @@
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="10">
-        <v>0</v>
-      </c>
-      <c r="D73" s="10">
-        <v>0</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="10">
-        <v>0</v>
-      </c>
-      <c r="G73" s="10">
-        <v>0</v>
-      </c>
-      <c r="H73" s="10">
-        <v>0</v>
-      </c>
-      <c r="I73" s="10">
-        <v>0</v>
-      </c>
-      <c r="J73" s="10">
-        <v>0</v>
-      </c>
-      <c r="K73" s="10">
-        <v>0</v>
-      </c>
-      <c r="L73" s="10">
-        <v>0</v>
-      </c>
-      <c r="M73" s="10">
-        <v>0</v>
-      </c>
-      <c r="N73" s="10">
-        <v>0</v>
-      </c>
-      <c r="O73" s="10">
+      <c r="C73" s="11">
+        <v>0</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0</v>
+      </c>
+      <c r="L73" s="11">
+        <v>0</v>
+      </c>
+      <c r="M73" s="11">
+        <v>0</v>
+      </c>
+      <c r="N73" s="11">
+        <v>0</v>
+      </c>
+      <c r="O73" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3088,43 +3091,43 @@
       <c r="B74" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="11">
         <v>1</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="11">
         <v>1</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="11">
         <v>1</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="11">
         <v>1</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="11">
         <v>1</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="11">
         <v>2</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="11">
         <v>2</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J74" s="11">
         <v>1</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K74" s="11">
         <v>1</v>
       </c>
-      <c r="L74" s="10">
+      <c r="L74" s="11">
         <v>1</v>
       </c>
-      <c r="M74" s="10">
+      <c r="M74" s="11">
         <v>1</v>
       </c>
-      <c r="N74" s="10">
+      <c r="N74" s="11">
         <v>1</v>
       </c>
-      <c r="O74" s="10">
+      <c r="O74" s="11">
         <v>1.2000000476837158</v>
       </c>
     </row>
@@ -3135,43 +3138,43 @@
       <c r="B75" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="10">
-        <v>0</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0</v>
-      </c>
-      <c r="E75" s="10">
-        <v>0</v>
-      </c>
-      <c r="F75" s="10">
-        <v>0</v>
-      </c>
-      <c r="G75" s="10">
-        <v>0</v>
-      </c>
-      <c r="H75" s="10">
-        <v>0</v>
-      </c>
-      <c r="I75" s="10">
-        <v>0</v>
-      </c>
-      <c r="J75" s="10">
-        <v>0</v>
-      </c>
-      <c r="K75" s="10">
-        <v>0</v>
-      </c>
-      <c r="L75" s="10">
-        <v>0</v>
-      </c>
-      <c r="M75" s="10">
-        <v>0</v>
-      </c>
-      <c r="N75" s="10">
-        <v>0</v>
-      </c>
-      <c r="O75" s="10">
+      <c r="C75" s="11">
+        <v>0</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>0</v>
+      </c>
+      <c r="J75" s="11">
+        <v>0</v>
+      </c>
+      <c r="K75" s="11">
+        <v>0</v>
+      </c>
+      <c r="L75" s="11">
+        <v>0</v>
+      </c>
+      <c r="M75" s="11">
+        <v>0</v>
+      </c>
+      <c r="N75" s="11">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3182,43 +3185,43 @@
       <c r="B76" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="11">
         <v>5</v>
       </c>
-      <c r="D76" s="10">
-        <v>4</v>
-      </c>
-      <c r="E76" s="10">
-        <v>4</v>
-      </c>
-      <c r="F76" s="10">
-        <v>4</v>
-      </c>
-      <c r="G76" s="10">
-        <v>4</v>
-      </c>
-      <c r="H76" s="10">
-        <v>4</v>
-      </c>
-      <c r="I76" s="10">
+      <c r="D76" s="11">
+        <v>4</v>
+      </c>
+      <c r="E76" s="11">
+        <v>4</v>
+      </c>
+      <c r="F76" s="11">
+        <v>4</v>
+      </c>
+      <c r="G76" s="11">
+        <v>4</v>
+      </c>
+      <c r="H76" s="11">
+        <v>4</v>
+      </c>
+      <c r="I76" s="11">
         <v>5</v>
       </c>
-      <c r="J76" s="10">
-        <v>4</v>
-      </c>
-      <c r="K76" s="10">
-        <v>4</v>
-      </c>
-      <c r="L76" s="10">
-        <v>4</v>
-      </c>
-      <c r="M76" s="10">
-        <v>4</v>
-      </c>
-      <c r="N76" s="10">
+      <c r="J76" s="11">
+        <v>4</v>
+      </c>
+      <c r="K76" s="11">
+        <v>4</v>
+      </c>
+      <c r="L76" s="11">
+        <v>4</v>
+      </c>
+      <c r="M76" s="11">
+        <v>4</v>
+      </c>
+      <c r="N76" s="11">
         <v>5</v>
       </c>
-      <c r="O76" s="10">
+      <c r="O76" s="11">
         <v>4.199999809265137</v>
       </c>
     </row>
@@ -3320,19 +3323,19 @@
       <c r="B80" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
     </row>
     <row r="81">
       <c r="A81" s="9" t="s">
@@ -3341,43 +3344,43 @@
       <c r="B81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="11">
-        <v>4</v>
-      </c>
-      <c r="D81" s="11">
+      <c r="C81" s="12">
+        <v>4</v>
+      </c>
+      <c r="D81" s="12">
         <v>3</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="12">
         <v>3</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="12">
         <v>3</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="12">
         <v>3</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="12">
         <v>2</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="12">
         <v>3</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J81" s="12">
         <v>3</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81" s="12">
         <v>3</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L81" s="12">
         <v>3</v>
       </c>
-      <c r="M81" s="11">
+      <c r="M81" s="12">
         <v>3</v>
       </c>
-      <c r="N81" s="11">
-        <v>4</v>
-      </c>
-      <c r="O81" s="11">
+      <c r="N81" s="12">
+        <v>4</v>
+      </c>
+      <c r="O81" s="12">
         <v>3.0999999046325684</v>
       </c>
     </row>
@@ -3388,19 +3391,19 @@
       <c r="B82" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
     </row>
     <row r="83">
       <c r="A83" s="9" t="s">
@@ -3409,43 +3412,43 @@
       <c r="B83" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="11">
-        <v>0</v>
-      </c>
-      <c r="D83" s="11">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <v>0</v>
-      </c>
-      <c r="F83" s="11">
-        <v>0</v>
-      </c>
-      <c r="G83" s="11">
-        <v>0</v>
-      </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0</v>
-      </c>
-      <c r="J83" s="11">
-        <v>0</v>
-      </c>
-      <c r="K83" s="11">
-        <v>0</v>
-      </c>
-      <c r="L83" s="11">
-        <v>0</v>
-      </c>
-      <c r="M83" s="11">
-        <v>0</v>
-      </c>
-      <c r="N83" s="11">
-        <v>0</v>
-      </c>
-      <c r="O83" s="11">
+      <c r="C83" s="12">
+        <v>0</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0</v>
+      </c>
+      <c r="F83" s="12">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <v>0</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
+        <v>0</v>
+      </c>
+      <c r="K83" s="12">
+        <v>0</v>
+      </c>
+      <c r="L83" s="12">
+        <v>0</v>
+      </c>
+      <c r="M83" s="12">
+        <v>0</v>
+      </c>
+      <c r="N83" s="12">
+        <v>0</v>
+      </c>
+      <c r="O83" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3456,19 +3459,19 @@
       <c r="B84" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
     </row>
     <row r="85">
       <c r="A85" s="9" t="s">
@@ -3477,43 +3480,43 @@
       <c r="B85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="12">
         <v>1</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="12">
         <v>1</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="12">
         <v>1</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="12">
         <v>1</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="12">
         <v>1</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="12">
         <v>2</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I85" s="12">
         <v>2</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J85" s="12">
         <v>1</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85" s="12">
         <v>1</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L85" s="12">
         <v>1</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M85" s="12">
         <v>1</v>
       </c>
-      <c r="N85" s="11">
+      <c r="N85" s="12">
         <v>1</v>
       </c>
-      <c r="O85" s="11">
+      <c r="O85" s="12">
         <v>1.2000000476837158</v>
       </c>
     </row>
@@ -3524,19 +3527,19 @@
       <c r="B86" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
     </row>
     <row r="87">
       <c r="A87" s="9" t="s">
@@ -3545,43 +3548,43 @@
       <c r="B87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C87" s="11">
-        <v>0</v>
-      </c>
-      <c r="D87" s="11">
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <v>0</v>
-      </c>
-      <c r="F87" s="11">
-        <v>0</v>
-      </c>
-      <c r="G87" s="11">
-        <v>0</v>
-      </c>
-      <c r="H87" s="11">
-        <v>0</v>
-      </c>
-      <c r="I87" s="11">
-        <v>0</v>
-      </c>
-      <c r="J87" s="11">
-        <v>0</v>
-      </c>
-      <c r="K87" s="11">
-        <v>0</v>
-      </c>
-      <c r="L87" s="11">
-        <v>0</v>
-      </c>
-      <c r="M87" s="11">
-        <v>0</v>
-      </c>
-      <c r="N87" s="11">
-        <v>0</v>
-      </c>
-      <c r="O87" s="11">
+      <c r="C87" s="12">
+        <v>0</v>
+      </c>
+      <c r="D87" s="12">
+        <v>0</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0</v>
+      </c>
+      <c r="F87" s="12">
+        <v>0</v>
+      </c>
+      <c r="G87" s="12">
+        <v>0</v>
+      </c>
+      <c r="H87" s="12">
+        <v>0</v>
+      </c>
+      <c r="I87" s="12">
+        <v>0</v>
+      </c>
+      <c r="J87" s="12">
+        <v>0</v>
+      </c>
+      <c r="K87" s="12">
+        <v>0</v>
+      </c>
+      <c r="L87" s="12">
+        <v>0</v>
+      </c>
+      <c r="M87" s="12">
+        <v>0</v>
+      </c>
+      <c r="N87" s="12">
+        <v>0</v>
+      </c>
+      <c r="O87" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3592,43 +3595,43 @@
       <c r="B88" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="11">
-        <v>0</v>
-      </c>
-      <c r="D88" s="11">
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <v>0</v>
-      </c>
-      <c r="F88" s="11">
-        <v>0</v>
-      </c>
-      <c r="G88" s="11">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11">
-        <v>0</v>
-      </c>
-      <c r="J88" s="11">
-        <v>0</v>
-      </c>
-      <c r="K88" s="11">
-        <v>0</v>
-      </c>
-      <c r="L88" s="11">
-        <v>0</v>
-      </c>
-      <c r="M88" s="11">
-        <v>0</v>
-      </c>
-      <c r="N88" s="11">
-        <v>0</v>
-      </c>
-      <c r="O88" s="11">
+      <c r="C88" s="12">
+        <v>0</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0</v>
+      </c>
+      <c r="F88" s="12">
+        <v>0</v>
+      </c>
+      <c r="G88" s="12">
+        <v>0</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
+      <c r="I88" s="12">
+        <v>0</v>
+      </c>
+      <c r="J88" s="12">
+        <v>0</v>
+      </c>
+      <c r="K88" s="12">
+        <v>0</v>
+      </c>
+      <c r="L88" s="12">
+        <v>0</v>
+      </c>
+      <c r="M88" s="12">
+        <v>0</v>
+      </c>
+      <c r="N88" s="12">
+        <v>0</v>
+      </c>
+      <c r="O88" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3639,43 +3642,43 @@
       <c r="B89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="12">
         <v>5</v>
       </c>
-      <c r="D89" s="11">
-        <v>4</v>
-      </c>
-      <c r="E89" s="11">
-        <v>4</v>
-      </c>
-      <c r="F89" s="11">
-        <v>4</v>
-      </c>
-      <c r="G89" s="11">
-        <v>4</v>
-      </c>
-      <c r="H89" s="11">
-        <v>4</v>
-      </c>
-      <c r="I89" s="11">
+      <c r="D89" s="12">
+        <v>4</v>
+      </c>
+      <c r="E89" s="12">
+        <v>4</v>
+      </c>
+      <c r="F89" s="12">
+        <v>4</v>
+      </c>
+      <c r="G89" s="12">
+        <v>4</v>
+      </c>
+      <c r="H89" s="12">
+        <v>4</v>
+      </c>
+      <c r="I89" s="12">
         <v>5</v>
       </c>
-      <c r="J89" s="11">
-        <v>4</v>
-      </c>
-      <c r="K89" s="11">
-        <v>4</v>
-      </c>
-      <c r="L89" s="11">
-        <v>4</v>
-      </c>
-      <c r="M89" s="11">
-        <v>4</v>
-      </c>
-      <c r="N89" s="11">
+      <c r="J89" s="12">
+        <v>4</v>
+      </c>
+      <c r="K89" s="12">
+        <v>4</v>
+      </c>
+      <c r="L89" s="12">
+        <v>4</v>
+      </c>
+      <c r="M89" s="12">
+        <v>4</v>
+      </c>
+      <c r="N89" s="12">
         <v>5</v>
       </c>
-      <c r="O89" s="11">
+      <c r="O89" s="12">
         <v>4.199999809265137</v>
       </c>
     </row>
